--- a/reports.xlsx
+++ b/reports.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="20181226" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Deployment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,90 @@
   </si>
   <si>
     <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biweekly Status Report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AKS - 120 - Pass (1H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AKS - Adpot comporession mechanism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansible - Ceph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prometheus - Mongo Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prometheus - RabbitMQ Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prometheus - Postgres Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dashboard - Mongo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dashboard - RabbitMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dashboard - Postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansible - Apps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestBed Crash Problem with SSL - Use Paho Instead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helm Packages - single instance -  Mongo/Postgres/RabbitMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARK(single node) - 400 - Fail (4D+6H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARK(single node) - 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIMB(single node) - 400 - Pass (16H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIMB(single node) - 300 - Pass (21H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{Platform} - {Devices} - {Result} </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,7 +141,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF7030A0"/>
+        <color rgb="FFC00000"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -80,7 +164,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF92D050"/>
+        <color theme="8" tint="0.39997558519241921"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -91,7 +175,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Biweekly Status Report</t>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ongoing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,7 +195,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TestCase</t>
+    <t>Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,7 +260,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF7030A0"/>
+      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -169,7 +269,16 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF92D050"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -179,21 +288,53 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
       <charset val="136"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF75"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -253,33 +394,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -288,6 +535,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF75"/>
+      <color rgb="FFFFFF19"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -583,107 +836,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="2" width="54.875" customWidth="1"/>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="69.375" customWidth="1"/>
+    <col min="5" max="5" width="59.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>123123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A14"/>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -693,14 +990,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="70.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/reports.xlsx
+++ b/reports.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="20181226" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="template" sheetId="2" r:id="rId1"/>
+    <sheet name="20181226" sheetId="1" r:id="rId2"/>
+    <sheet name="20190109" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>Deployment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,11 +195,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Testing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Done</t>
+    <t>Devices:400 Platform:ARK-3530 Result:Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devices:300 Platform:ARK-3530 Result:Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devices:400 Platform:ARK-3530 Result:Fail(4days+6hrs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devices:300 Platform:ARK-3530 Result:Fail(4days+14.5hrs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Devices:100 Platform:ARK-3530 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Devices:200 Platform:ARK-3530 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansible for Ceph and our apps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AKS+EdgeSense on Azure marketplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongo Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AlertManager </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testbed w/ paho library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compression mechanism for agent on Azure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postgres Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RabbitMQ Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboards - RabbitMQ/Mongo/Postgres </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test worker w/ new JAVA_OPTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move packages to azure docker hub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stress testing on Azure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring apps(prometheus, grafana) on Azure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,6 +383,14 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -455,24 +539,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,36 +573,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,6 +932,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="70.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -850,23 +1159,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -874,104 +1183,104 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -988,224 +1297,194 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
-    <col min="3" max="3" width="70.5" customWidth="1"/>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="64.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C8" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="19" t="s">
+      <c r="C11" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="19" t="s">
+      <c r="C13" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="19" t="s">
+      <c r="C17" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="14"/>
-    </row>
-    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="14"/>
+      <c r="C18" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A14:A19"/>
+  <mergeCells count="10">
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/reports.xlsx
+++ b/reports.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7860" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="2" r:id="rId1"/>
     <sheet name="20181226" sheetId="1" r:id="rId2"/>
     <sheet name="20190109" sheetId="3" r:id="rId3"/>
+    <sheet name="20190123" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t>Deployment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,7 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -391,8 +392,15 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +425,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -539,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -572,11 +598,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,30 +613,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -625,6 +625,47 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -935,7 +976,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C26"/>
+      <selection activeCell="C25" sqref="A1:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -946,176 +987,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C4" s="34"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="34"/>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="19" t="s">
+      <c r="C8" s="34"/>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="19" t="s">
+      <c r="C10" s="34"/>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="34"/>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="19" t="s">
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="34"/>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="19" t="s">
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="C18" s="34"/>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="35"/>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="19" t="s">
+      <c r="C21" s="34"/>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="19" t="s">
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="34"/>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="11"/>
+      <c r="C25" s="34"/>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1148,7 +1189,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="A1:B19"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1216,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1183,31 +1224,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1215,13 +1256,13 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1229,31 +1270,31 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
@@ -1265,7 +1306,7 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1273,13 +1314,13 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1301,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1313,35 +1354,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="28" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -1349,8 +1390,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1358,24 +1399,24 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -1383,8 +1424,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1392,17 +1433,17 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1410,15 +1451,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1426,8 +1467,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1435,17 +1476,17 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -1453,8 +1494,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1462,8 +1503,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -1487,4 +1528,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.125" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="54.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="34"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="34"/>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="34"/>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="34"/>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="34"/>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="34"/>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="34"/>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="35"/>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="34"/>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="34"/>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reports.xlsx
+++ b/reports.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
   <si>
     <t>Deployment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,102 @@
   </si>
   <si>
     <t>Monitoring apps(prometheus, grafana) on Azure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with CF java parameters and RabbitMQ queue limitation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devices:600 Platform:ARK-3530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansible for Ceph and our apps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K8s with Moby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environment Testing - K8s with Moby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Devices:400 Platform:ARK-3530 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retention Policy for Prometheus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongo Exporter/Dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Message Compression mechanism for agent on Azure </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings for Report Interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message Decompression mechanism (RMMworker)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dashboards - RabbitMQ/Postgres/K8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Licence Issue - Docker CE is not the first priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On-Premise DNS Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evelyn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTA with Mino S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PV Scaling/Applications/Services</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,14 +483,13 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -565,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,9 +690,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,12 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -653,10 +739,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -666,6 +752,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -987,176 +1095,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="34" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="31"/>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="31"/>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="31"/>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="31"/>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="31"/>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="31"/>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="31"/>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="31"/>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="31"/>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="32"/>
     </row>
     <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="31"/>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="34"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="31"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="31"/>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="34"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1216,7 +1324,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1224,31 +1332,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1256,13 +1364,13 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1270,31 +1378,31 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
@@ -1306,7 +1414,7 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1314,13 +1422,13 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1343,171 +1451,172 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.25" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="64.125" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="33" customWidth="1"/>
+    <col min="2" max="2" width="24" style="33" customWidth="1"/>
+    <col min="3" max="3" width="64.125" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="11" t="s">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="11" t="s">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="11" t="s">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1532,203 +1641,223 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.125" customWidth="1"/>
-    <col min="2" max="2" width="48" customWidth="1"/>
-    <col min="3" max="3" width="54.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="63.25" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="67.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="D1" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="31"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="21" t="s">
+      <c r="C7" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="34"/>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="34"/>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="34"/>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="34"/>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="34"/>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="34"/>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="34"/>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="34"/>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="21" t="s">
+      <c r="C8" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="34"/>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="34"/>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="21" t="s">
+      <c r="C9" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="34"/>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="34"/>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="34"/>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="34"/>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="21" t="s">
+      <c r="C10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="34"/>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="35"/>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="34"/>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="34"/>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="34"/>
-    </row>
-    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="34"/>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="34"/>
-    </row>
-    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="34"/>
+      <c r="C12" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports.xlsx
+++ b/reports.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7860" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="2" r:id="rId1"/>
     <sheet name="20181226" sheetId="1" r:id="rId2"/>
     <sheet name="20190109" sheetId="3" r:id="rId3"/>
     <sheet name="20190123" sheetId="4" r:id="rId4"/>
+    <sheet name="20190220" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>Deployment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +374,73 @@
   </si>
   <si>
     <t>PV Scaling/Applications/Services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zach/Evelyn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All the packages with tags and private images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansible - Deploy a enviroment for testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdgeSense 1.0.96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>packages and private images related to K8S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Portal/Worker Testing </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -696,54 +764,9 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -765,14 +788,71 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,184 +1175,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="31" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="31"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="31"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="31"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="31"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="31"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="31"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="31"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B25:B26"/>
@@ -1285,6 +1360,11 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1324,7 +1404,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1332,31 +1412,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1364,13 +1444,13 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1378,31 +1458,31 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
@@ -1414,7 +1494,7 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1422,13 +1502,13 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1456,41 +1536,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="33" customWidth="1"/>
-    <col min="2" max="2" width="24" style="33" customWidth="1"/>
-    <col min="3" max="3" width="64.125" style="33" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="26.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="24" style="18" customWidth="1"/>
+    <col min="3" max="3" width="64.125" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="35" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
@@ -1499,8 +1579,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1508,21 +1588,21 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1533,8 +1613,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -1542,17 +1622,17 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -1560,14 +1640,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
@@ -1576,8 +1656,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -1585,14 +1665,14 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1603,7 +1683,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
@@ -1612,7 +1692,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
@@ -1643,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1657,196 +1737,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="31" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="31" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="31"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="40"/>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="31"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="31" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="31"/>
+      <c r="E14" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1862,4 +1942,136 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="63.25" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
+      <c r="B3" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="42"/>
+      <c r="B6" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/reports.xlsx
+++ b/reports.xlsx
@@ -412,26 +412,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Data Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Zach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Monitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Testing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EdgeSense 1.0.96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>packages and private images related to K8S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,6 +429,18 @@
   </si>
   <si>
     <t>Alec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Server v1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdgeSense v1.0.96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring v1.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1949,14 +1949,14 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="63.25" customWidth="1"/>
+    <col min="3" max="3" width="54.5" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
@@ -1990,7 +1990,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1999,7 +1999,7 @@
         <v>79</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>81</v>
@@ -2029,10 +2029,10 @@
         <v>27</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="E5" s="16"/>
     </row>
@@ -2042,7 +2042,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>70</v>
@@ -2051,16 +2051,16 @@
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="43" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7" s="16"/>
     </row>

--- a/reports.xlsx
+++ b/reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7860" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="20190109" sheetId="3" r:id="rId3"/>
     <sheet name="20190123" sheetId="4" r:id="rId4"/>
     <sheet name="20190220" sheetId="5" r:id="rId5"/>
+    <sheet name="20190306" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="101">
   <si>
     <t>Deployment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,6 +442,42 @@
   </si>
   <si>
     <t>Monitoring v1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survey - Kubernetes Benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stress Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Betty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BVT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansible Deployment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdgeSense v1.0.97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Test - Rebooting </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Test -  Configuration on IP of the Node </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -853,6 +890,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1948,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2074,4 +2117,189 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="62.25" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
+      <c r="B3" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="42"/>
+      <c r="B6" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="45"/>
+      <c r="B8" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="45"/>
+      <c r="B9" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="45"/>
+      <c r="B10" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/reports.xlsx
+++ b/reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7860" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7860" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="2" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="20190123" sheetId="4" r:id="rId4"/>
     <sheet name="20190220" sheetId="5" r:id="rId5"/>
     <sheet name="20190306" sheetId="6" r:id="rId6"/>
+    <sheet name="工作表1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="120">
   <si>
     <t>Deployment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -480,12 +481,88 @@
     <t xml:space="preserve">Test -  Configuration on IP of the Node </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Tag for EdgeSense v1.0.98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>packages and private images related to K8S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansible Deployment (RBAC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Service Server v1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPChange Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebooting Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebooting - Prometheus Server Crash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BVT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device:400 report_interval:60secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technical Manual v1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bugs: OTA/KVM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE/PM Material/Technical Delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stress Test (5Days - Pass)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survey - Ceph Benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -595,6 +672,22 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF92D050"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -765,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -825,6 +918,33 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -840,21 +960,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,23 +984,29 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,19 +1329,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -1238,110 +1349,110 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="30" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="30" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="30" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="30" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1352,45 +1463,50 @@
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="30" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="28" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B25:B26"/>
@@ -1403,11 +1519,6 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1447,7 +1558,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1455,31 +1566,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1487,13 +1598,13 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1501,31 +1612,31 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
@@ -1537,7 +1648,7 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1545,13 +1656,13 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1586,19 +1697,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -1606,14 +1717,14 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
@@ -1622,8 +1733,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1631,21 +1742,21 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1656,8 +1767,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -1665,17 +1776,17 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -1683,14 +1794,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
@@ -1699,8 +1810,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -1708,14 +1819,14 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="40" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1726,7 +1837,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
@@ -1735,7 +1846,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
@@ -1780,10 +1891,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="15" t="s">
         <v>29</v>
       </c>
@@ -1795,7 +1906,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -1812,7 +1923,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="22" t="s">
         <v>28</v>
       </c>
@@ -1827,7 +1938,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -1844,8 +1955,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -1857,8 +1968,8 @@
       <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="16" t="s">
         <v>56</v>
       </c>
@@ -1870,7 +1981,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -1885,7 +1996,7 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="21" t="s">
         <v>27</v>
       </c>
@@ -1898,7 +2009,7 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="21" t="s">
         <v>26</v>
       </c>
@@ -1911,10 +2022,10 @@
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -1926,8 +2037,8 @@
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="16" t="s">
         <v>66</v>
       </c>
@@ -1937,8 +2048,8 @@
       <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -1950,8 +2061,8 @@
       <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="16" t="s">
         <v>73</v>
       </c>
@@ -1961,8 +2072,8 @@
       <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="16" t="s">
         <v>62</v>
       </c>
@@ -2005,10 +2116,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="15" t="s">
         <v>29</v>
       </c>
@@ -2020,7 +2131,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -2037,8 +2148,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="24" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -2053,7 +2164,7 @@
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -2065,10 +2176,10 @@
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -2080,8 +2191,8 @@
       <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -2096,7 +2207,7 @@
       <c r="A7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -2123,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2137,10 +2248,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="15" t="s">
         <v>29</v>
       </c>
@@ -2152,7 +2263,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -2169,7 +2280,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>76</v>
       </c>
@@ -2185,7 +2296,7 @@
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -2197,10 +2308,10 @@
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -2212,8 +2323,8 @@
       <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -2225,10 +2336,10 @@
       <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -2240,8 +2351,8 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -2253,8 +2364,8 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -2266,8 +2377,8 @@
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -2279,8 +2390,8 @@
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -2302,4 +2413,246 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="57.25" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="41.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
+      <c r="B3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="49"/>
+      <c r="B9" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="52"/>
+      <c r="B10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
+      <c r="B11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="52"/>
+      <c r="B14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>